--- a/ДМС/Красноярск/Стационар плановый-экстренный.xlsx
+++ b/ДМС/Красноярск/Стационар плановый-экстренный.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50AdmNsk\PycharmProjects\pythonProject\ДМС\Красноярск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50GarderDV\Downloads\ДМС\Красноярск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A96F14-AAE7-4228-B66F-FCBF599C151F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="Красноярск+" sheetId="11" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>СТАЦИОНАР ПЛАНОВЫЙ И ЭКСТРЕННЫЙ</t>
   </si>
@@ -57,15 +56,6 @@
   </si>
   <si>
     <t>НИИ МЕДИЦИНСКИХ ПРОБЛЕМ СЕВЕРА ФИЦ КНЦ СО РАН</t>
-  </si>
-  <si>
-    <t>г Красноярск, ул Красной Армии, д 16а</t>
-  </si>
-  <si>
-    <t>г Красноярск, ул Партизана Железняка, д 3Г</t>
-  </si>
-  <si>
-    <t>г Красноярск, ул Шахтеров, д 25к1</t>
   </si>
   <si>
     <t>КЛИНИЧЕСКАЯ БОЛЬНИЦА РЖД-МЕДИЦИНА ГОРОДА КРАСНОЯРСК, ЧУЗ</t>
@@ -142,11 +132,14 @@
   <si>
     <t>https://kmb7.ru/</t>
   </si>
+  <si>
+    <t>г Красноярск, ул Красной Армии, д 16а/  ул Партизана Железняка, д 3Г/ ул Шахтеров, д 25к1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,8 +245,8 @@
   <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,23 +337,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,23 +372,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -588,44 +547,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -636,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -656,36 +615,36 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,16 +655,16 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -716,36 +675,36 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -753,76 +712,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
+      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
+      <Description>6MRAV4MPJ4WK-605773199-208</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100E2008D7E4742AA41887FDC2E79A7A762" ma:contentTypeVersion="1" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="f9aaf2498e151e4c742fbf1c352ca431">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c95ad6c5f32494a945af1673268ec41" ns2:_="">
     <xsd:import namespace="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
@@ -967,28 +896,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">6MRAV4MPJ4WK-605773199-208</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb">
-      <Url>https://cbrportal.cbr.ru/dep/ad/_layouts/15/DocIdRedir.aspx?ID=6MRAV4MPJ4WK-605773199-208</Url>
-      <Description>6MRAV4MPJ4WK-605773199-208</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1038,7 +946,32 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F0884-BE63-4CF6-875E-8F62E6BEA50D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1056,34 +989,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25D7794-8982-464B-8F1D-0C3EC06EF16B}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8a301b8-fba3-4a56-9ee3-0e2775d83ffb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28D65DD3-3A63-45BF-A897-2BF76555CF21}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804AC0A1-4F33-4181-8C23-B0A36819A154}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>